--- a/SmithyTree.xlsx
+++ b/SmithyTree.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27c08337ad3375f7/빨간망토/데이터 테이블/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPGDataFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="11_2E22529D54DCCE836B02CE998F4CD45F6C2A2976" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DB56C26-C74D-4519-AC55-E5ECFFB55269}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D09E18-15F5-4890-937E-9B139004DD90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="50">
   <si>
     <t>변수 설명</t>
   </si>
@@ -183,6 +183,18 @@
   </si>
   <si>
     <t>C2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>해금 여부</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cell_unlock</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -598,7 +610,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomRight" activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -615,6 +627,7 @@
     <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -655,7 +668,9 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -701,7 +716,9 @@
       <c r="L2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -747,7 +764,9 @@
       <c r="L3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -1258,7 +1277,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="M1" sqref="M1:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1275,6 +1294,7 @@
     <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1315,7 +1335,9 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -1361,7 +1383,9 @@
       <c r="L2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -1407,7 +1431,9 @@
       <c r="L3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -1918,7 +1944,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="M1" sqref="M1:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1935,6 +1961,7 @@
     <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1975,7 +2002,9 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -2021,7 +2050,9 @@
       <c r="L2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -2067,7 +2098,9 @@
       <c r="L3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>

--- a/SmithyTree.xlsx
+++ b/SmithyTree.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPGDataFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D09E18-15F5-4890-937E-9B139004DD90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2545448-063D-4D16-B5C5-0C281AD8E2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1175,7 +1175,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="E34" sqref="E34:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1842,7 +1842,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1927,7 +1927,7 @@
         <v>42</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2506,10 +2506,10 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N31" sqref="N31"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2594,7 +2594,7 @@
         <v>42</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
